--- a/Bitacoras/Bitacora_7.xlsx
+++ b/Bitacoras/Bitacora_7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a195dc11b842bbc7/Escritorio/Notas-sena/Bitacoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{78045CB9-A2F3-44FA-8EE9-964DFBA184B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185BE2D6-13C9-422C-BFB2-FFE093E225DA}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{78045CB9-A2F3-44FA-8EE9-964DFBA184B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62BF5BFF-F21B-4969-BCF8-EF7DE30FB5A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,12 +414,6 @@
     <t>angelica.rojas@newsol.com.co</t>
   </si>
   <si>
-    <t>Fragmento del codigo de la automatización</t>
-  </si>
-  <si>
-    <t>Repositorio, donde se encuentra alojado el codigo fuente.</t>
-  </si>
-  <si>
     <t>21/1/2024 A 5/02/2024</t>
   </si>
   <si>
@@ -429,7 +423,13 @@
     <t>Se realiza el documento de Historias de usuario para la automatizacion de correos</t>
   </si>
   <si>
-    <t>Se realiza el diseño UI para el proyecto NewSOD</t>
+    <t>Diseño UX</t>
+  </si>
+  <si>
+    <t>Se realiza el diseño UX para el proyecto NewSOD</t>
+  </si>
+  <si>
+    <t>Documento de hisotiras de usuario</t>
   </si>
 </sst>
 </file>
@@ -1107,6 +1107,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1114,24 +1132,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1441,6 +1441,137 @@
         <a:xfrm>
           <a:off x="5891893" y="18315214"/>
           <a:ext cx="1419423" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1413985</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2707821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CDA7996-FEA7-D0F6-3326-65AB3FC398AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="25683"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6817178" y="14518821"/>
+          <a:ext cx="6775200" cy="3279322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1413985</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3548460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94636E04-840B-AAAA-DD18-F6FDA6C5EF6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6817178" y="11076215"/>
+          <a:ext cx="6775200" cy="4133567"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1413985</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>734927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2557779B-F167-8567-C18C-24EC6325B25D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6817178" y="7157356"/>
+          <a:ext cx="6775200" cy="4095892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2670,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2982,7 +3113,7 @@
       <c r="R10" s="91"/>
       <c r="S10" s="92"/>
       <c r="T10" s="87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U10" s="87"/>
       <c r="V10" s="87"/>
@@ -3276,10 +3407,10 @@
       <c r="J20" s="48">
         <v>1233496433</v>
       </c>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
       <c r="O20" s="71">
         <v>3118047047</v>
       </c>
@@ -3412,41 +3543,41 @@
       <c r="B25" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="99"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
       <c r="K25" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="98"/>
+      <c r="L25" s="104"/>
       <c r="M25" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="98"/>
+      <c r="N25" s="104"/>
       <c r="O25" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="99"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="105"/>
       <c r="U25" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="99"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="105"/>
     </row>
     <row r="26" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
@@ -3456,14 +3587,14 @@
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="62"/>
-      <c r="K26" s="100">
+      <c r="K26" s="97">
         <v>45313</v>
       </c>
-      <c r="L26" s="101"/>
-      <c r="M26" s="100">
+      <c r="L26" s="98"/>
+      <c r="M26" s="97">
         <v>45315</v>
       </c>
-      <c r="N26" s="101"/>
+      <c r="N26" s="98"/>
       <c r="O26" s="51"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -3471,7 +3602,7 @@
       <c r="S26" s="52"/>
       <c r="T26" s="53"/>
       <c r="U26" s="60" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="V26" s="61"/>
       <c r="W26" s="61"/>
@@ -3488,10 +3619,10 @@
       <c r="H27" s="64"/>
       <c r="I27" s="64"/>
       <c r="J27" s="65"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="105"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="100"/>
       <c r="O27" s="54"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="55"/>
@@ -3514,10 +3645,10 @@
       <c r="H28" s="64"/>
       <c r="I28" s="64"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="105"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="100"/>
       <c r="O28" s="54"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
@@ -3540,10 +3671,10 @@
       <c r="H29" s="64"/>
       <c r="I29" s="64"/>
       <c r="J29" s="65"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="105"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="100"/>
       <c r="O29" s="54"/>
       <c r="P29" s="55"/>
       <c r="Q29" s="55"/>
@@ -3566,10 +3697,10 @@
       <c r="H30" s="64"/>
       <c r="I30" s="64"/>
       <c r="J30" s="65"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="105"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="100"/>
       <c r="O30" s="54"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
@@ -3592,10 +3723,10 @@
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
       <c r="J31" s="65"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="105"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="100"/>
       <c r="O31" s="54"/>
       <c r="P31" s="55"/>
       <c r="Q31" s="55"/>
@@ -3618,10 +3749,10 @@
       <c r="H32" s="64"/>
       <c r="I32" s="64"/>
       <c r="J32" s="65"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="105"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="100"/>
       <c r="O32" s="54"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
@@ -3634,7 +3765,7 @@
       <c r="X32" s="64"/>
       <c r="Y32" s="65"/>
     </row>
-    <row r="33" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="66"/>
       <c r="C33" s="67"/>
       <c r="D33" s="67"/>
@@ -3644,10 +3775,10 @@
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
       <c r="J33" s="68"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="103"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="102"/>
       <c r="O33" s="57"/>
       <c r="P33" s="58"/>
       <c r="Q33" s="58"/>
@@ -3662,7 +3793,7 @@
     </row>
     <row r="34" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
@@ -3672,14 +3803,14 @@
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
       <c r="J34" s="62"/>
-      <c r="K34" s="100">
+      <c r="K34" s="97">
         <v>45315</v>
       </c>
-      <c r="L34" s="101"/>
-      <c r="M34" s="100">
+      <c r="L34" s="98"/>
+      <c r="M34" s="97">
         <v>45317</v>
       </c>
-      <c r="N34" s="101"/>
+      <c r="N34" s="98"/>
       <c r="O34" s="51"/>
       <c r="P34" s="52"/>
       <c r="Q34" s="52"/>
@@ -3687,14 +3818,14 @@
       <c r="S34" s="52"/>
       <c r="T34" s="53"/>
       <c r="U34" s="69" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="V34" s="69"/>
       <c r="W34" s="69"/>
       <c r="X34" s="69"/>
       <c r="Y34" s="69"/>
     </row>
-    <row r="35" spans="2:25" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
@@ -3704,10 +3835,10 @@
       <c r="H35" s="67"/>
       <c r="I35" s="67"/>
       <c r="J35" s="68"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="103"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="102"/>
       <c r="O35" s="57"/>
       <c r="P35" s="58"/>
       <c r="Q35" s="58"/>
@@ -3722,7 +3853,7 @@
     </row>
     <row r="36" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
@@ -3747,7 +3878,7 @@
       <c r="S36" s="52"/>
       <c r="T36" s="53"/>
       <c r="U36" s="69" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V36" s="69"/>
       <c r="W36" s="69"/>
@@ -4087,6 +4218,8 @@
     <mergeCell ref="K46:Q46"/>
     <mergeCell ref="S46:Y46"/>
     <mergeCell ref="B42:I42"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="M34:N35"/>
     <mergeCell ref="B5:Y5"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B8:Y8"/>
@@ -4108,8 +4241,6 @@
     <mergeCell ref="B1:V2"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="M34:N35"/>
     <mergeCell ref="B26:J33"/>
     <mergeCell ref="K26:L33"/>
     <mergeCell ref="M26:N33"/>
@@ -4363,15 +4494,15 @@
       <c r="X7" s="133"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="140" t="s">
         <v>24</v>
       </c>
@@ -4539,15 +4670,15 @@
       <c r="X13" s="133"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="140" t="s">
         <v>29</v>
       </c>
